--- a/OperadoraNominas/bin/Debug/Archivos/procesos1.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/procesos1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Xurtep\XurtepNominas\XurtepNominas\bin\Debug\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Operadora\OperadoraNominas\OperadoraNominas\bin\Debug\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -1223,13 +1223,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,101 +1344,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>11</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>13</v>
-      </c>
-      <c r="N2">
-        <v>14</v>
-      </c>
-      <c r="O2">
-        <v>15</v>
-      </c>
-      <c r="P2">
-        <v>16</v>
-      </c>
-      <c r="Q2">
-        <v>17</v>
-      </c>
-      <c r="R2">
-        <v>18</v>
-      </c>
-      <c r="S2">
-        <v>19</v>
-      </c>
-      <c r="T2">
-        <v>20</v>
-      </c>
-      <c r="U2">
-        <v>21</v>
-      </c>
-      <c r="V2">
-        <v>22</v>
-      </c>
-      <c r="W2">
-        <v>23</v>
-      </c>
-      <c r="X2">
-        <v>24</v>
-      </c>
-      <c r="Y2">
-        <v>25</v>
-      </c>
-      <c r="Z2">
-        <v>26</v>
-      </c>
-      <c r="AA2">
-        <v>27</v>
-      </c>
-      <c r="AB2">
-        <v>28</v>
-      </c>
-      <c r="AC2">
-        <v>29</v>
-      </c>
-      <c r="AD2">
-        <v>30</v>
-      </c>
-      <c r="AE2">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="X1:Y1"/>
@@ -1457,13 +1362,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2:P2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,62 +1503,6 @@
       </c>
       <c r="R3" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>11</v>
-      </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>13</v>
-      </c>
-      <c r="N4">
-        <v>14</v>
-      </c>
-      <c r="O4">
-        <v>15</v>
-      </c>
-      <c r="P4">
-        <v>16</v>
-      </c>
-      <c r="Q4">
-        <v>17</v>
-      </c>
-      <c r="R4">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
